--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4066565.866622824</v>
+        <v>4064068.134699135</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554858</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7232493.145112608</v>
+        <v>7232493.145112609</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>48.4984274302681</v>
       </c>
       <c r="G2" t="n">
-        <v>28.64330404593799</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386865</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011781</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>74.43397359944402</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120.0397670756256</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386865</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011781</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12.34499748802832</v>
       </c>
       <c r="V5" t="n">
-        <v>152.9601951923489</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66.92045089489143</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.6366116597838</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.82634188947511</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>114.9768565432195</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.63890193362665</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471655</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319665</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576177</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>129.0096827405964</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258289</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,61 +4304,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.8099583210303</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="C2" t="n">
-        <v>952.8099583210303</v>
+        <v>957.313199641698</v>
       </c>
       <c r="D2" t="n">
-        <v>594.5442597142799</v>
+        <v>957.313199641698</v>
       </c>
       <c r="E2" t="n">
-        <v>208.7560071160356</v>
+        <v>957.313199641698</v>
       </c>
       <c r="F2" t="n">
-        <v>201.8105063668322</v>
+        <v>908.3248891060737</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760173998</v>
+        <v>491.224998716004</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199855</v>
+        <v>474.9025859199814</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.843037648567</v>
+        <v>1025.84303764856</v>
       </c>
       <c r="M2" t="n">
-        <v>1210.458592371941</v>
+        <v>1655.476990529834</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.431735936301</v>
+        <v>2280.667081484947</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.593372690798</v>
+        <v>2448.836538789323</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385544</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140764</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
         <v>2010.107259195795</v>
@@ -4370,10 +4370,10 @@
         <v>1326.27571658211</v>
       </c>
       <c r="X2" t="n">
-        <v>952.8099583210303</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="Y2" t="n">
-        <v>952.8099583210303</v>
+        <v>1326.27571658211</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640336</v>
+        <v>199.8245529640341</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320014</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291131</v>
+        <v>635.0313759194078</v>
       </c>
       <c r="M3" t="n">
-        <v>1061.992430897332</v>
+        <v>1273.967840900124</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085765</v>
+        <v>1926.354174881867</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.24622229144</v>
+        <v>2084.355718003577</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018975</v>
+        <v>2507.11096073111</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.9039195131145</v>
+        <v>173.9703775698636</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7180875944842</v>
+        <v>173.9703775698636</v>
       </c>
       <c r="D4" t="n">
-        <v>52.7180875944842</v>
+        <v>173.9703775698636</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7180875944842</v>
+        <v>173.9703775698636</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>173.9703775698636</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628167</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554378</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917113</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421862</v>
+        <v>917.0295025661707</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421862</v>
+        <v>917.0295025661707</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421862</v>
+        <v>691.3770985048416</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421862</v>
+        <v>691.3770985048416</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421862</v>
+        <v>691.3770985048416</v>
       </c>
       <c r="W4" t="n">
-        <v>758.3345143849017</v>
+        <v>401.959928467881</v>
       </c>
       <c r="X4" t="n">
-        <v>530.3449634868844</v>
+        <v>173.9703775698636</v>
       </c>
       <c r="Y4" t="n">
-        <v>309.5523843433542</v>
+        <v>173.9703775698636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1369.926188137489</v>
+        <v>1180.898854030605</v>
       </c>
       <c r="C5" t="n">
-        <v>1000.963671197077</v>
+        <v>1180.898854030605</v>
       </c>
       <c r="D5" t="n">
-        <v>1000.963671197077</v>
+        <v>1180.898854030605</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.963671197077</v>
+        <v>795.1106014323607</v>
       </c>
       <c r="F5" t="n">
-        <v>589.9777664074695</v>
+        <v>384.1246966427531</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760173998</v>
+        <v>371.0652102930876</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760173998</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745325</v>
+        <v>268.6856385292506</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031138</v>
+        <v>819.6260902578288</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084392</v>
+        <v>1004.241644981199</v>
       </c>
       <c r="N5" t="n">
-        <v>1948.012457026069</v>
+        <v>1629.431735936311</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780566</v>
+        <v>2174.593372690805</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385544</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140764</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140764</v>
+        <v>2251.330236708412</v>
       </c>
       <c r="V5" t="n">
-        <v>2109.294683471725</v>
+        <v>1920.267349364841</v>
       </c>
       <c r="W5" t="n">
-        <v>1756.52602820161</v>
+        <v>1567.498694094727</v>
       </c>
       <c r="X5" t="n">
-        <v>1756.52602820161</v>
+        <v>1567.498694094727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1756.52602820161</v>
+        <v>1567.498694094727</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120986</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309716</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697203</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642643</v>
+        <v>483.8069872642648</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911493</v>
+        <v>337.2724292911498</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320014</v>
+        <v>310.0398778971946</v>
       </c>
       <c r="L6" t="n">
-        <v>884.1039790291131</v>
+        <v>813.0227120943041</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.040444009832</v>
+        <v>990.9111639625206</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.045718791142</v>
+        <v>1643.297497944263</v>
       </c>
       <c r="O6" t="n">
-        <v>2267.970957996817</v>
+        <v>2191.222737149935</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018975</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4689,7 +4689,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.3210895500752</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="C7" t="n">
-        <v>349.7246745047303</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="D7" t="n">
-        <v>199.6080350923945</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923945</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628167</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554378</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917113</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421862</v>
+        <v>917.0295025661707</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421862</v>
+        <v>917.0295025661707</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421862</v>
+        <v>691.3770985048416</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421862</v>
+        <v>691.3770985048416</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421862</v>
+        <v>449.3199150101104</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421862</v>
+        <v>449.3199150101104</v>
       </c>
       <c r="X7" t="n">
-        <v>819.762133523845</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.9695543803149</v>
+        <v>221.3303641120931</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.8679068095116</v>
+        <v>1153.240183941501</v>
       </c>
       <c r="C8" t="n">
-        <v>432.9053898690999</v>
+        <v>1153.240183941501</v>
       </c>
       <c r="D8" t="n">
-        <v>74.6396912623494</v>
+        <v>794.9744853347507</v>
       </c>
       <c r="E8" t="n">
-        <v>74.6396912623494</v>
+        <v>794.9744853347507</v>
       </c>
       <c r="F8" t="n">
-        <v>67.69419051314593</v>
+        <v>788.0289845855473</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>370.9412028219747</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125547</v>
+        <v>906.7808650574121</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950955</v>
+        <v>1538.498676040724</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>1732.832888932706</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>2279.994093699784</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2519.766140791666</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2266.074437536817</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.841492380639</v>
+        <v>2266.074437536817</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.072837110525</v>
+        <v>1913.305782266703</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.607078849445</v>
+        <v>1539.840024005623</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.467746873633</v>
+        <v>1539.840024005623</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>886.5080317664126</v>
       </c>
       <c r="M9" t="n">
-        <v>1440.265684947312</v>
+        <v>1066.005368121017</v>
       </c>
       <c r="N9" t="n">
         <v>1638.922426599977</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747876</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923945</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>714.7345230256369</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>489.1053263380019</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>476.338758728278</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>221.6542705223911</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,52 +5036,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
         <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5179,22 +5179,22 @@
         <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556308</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,13 +6543,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,46 +6923,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5051450557705</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2316.650272731174</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2097.048807754114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.0469775526354</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>44.78540908207071</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>178.1043206132559</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>107.9464839862204</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>115.8454657118406</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>425.4775648024504</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>73.41412016861065</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>30.86202550319356</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,10 +8456,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818464</v>
+        <v>123.8657672604979</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>258.1828939084838</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>378.0407240669645</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.282327221323107e-14</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.498782050356033e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460263</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.01660326104815</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669575.1095865727</v>
+        <v>669575.1095865733</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>669575.1095865727</v>
+        <v>669575.1095865733</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>669226.9311226087</v>
+        <v>669226.9311226088</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
@@ -26335,25 +26335,25 @@
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.933122243</v>
+        <v>789845.9331222384</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448472796</v>
+        <v>2553.741448476983</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329925</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663869</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695046</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695064</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695113</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695072</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.48053169497</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>6287.480531695117</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695073</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695113</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695059</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695025</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.48053169497</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531694995</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695042</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695022</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239806.6239242394</v>
+        <v>-239806.6239242353</v>
       </c>
       <c r="C6" t="n">
-        <v>550039.3091980036</v>
+        <v>550039.309198003</v>
       </c>
       <c r="D6" t="n">
-        <v>547924.3173906304</v>
+        <v>547924.3173906261</v>
       </c>
       <c r="E6" t="n">
-        <v>-75887.68289858839</v>
+        <v>-75922.42082402432</v>
       </c>
       <c r="F6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="G6" t="n">
-        <v>699736.5893344037</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="H6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089681</v>
       </c>
       <c r="I6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="J6" t="n">
-        <v>527319.447952264</v>
+        <v>527284.7100268276</v>
       </c>
       <c r="K6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="L6" t="n">
-        <v>699736.5893344042</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="M6" t="n">
-        <v>571712.4718680175</v>
+        <v>571677.7339425813</v>
       </c>
       <c r="N6" t="n">
-        <v>699736.5893344043</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="O6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="P6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089683</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632722954</v>
+        <v>2.981900632727843</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685962</v>
+        <v>513.7321931685963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>358.3776183114433</v>
       </c>
       <c r="G2" t="n">
-        <v>384.2855874402309</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>92.81284749918382</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>46.88638667680716</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371265</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>238.8107477374909</v>
       </c>
       <c r="V5" t="n">
-        <v>174.792063277786</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>100.3263702037364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371265</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937732</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>12.50103166404421</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>398.0905620564617</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,13 +27904,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>97.67500657174652</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>273.6217527244704</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28567,13 +28567,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J2" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R2" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938789</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T3" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L4" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203284</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J5" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R5" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938789</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T6" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L7" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203284</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313368</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814929</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332934</v>
+        <v>406.0176783332909</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965468</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064384</v>
+        <v>635.9938917992674</v>
       </c>
       <c r="N2" t="n">
-        <v>423.2051955195558</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540374</v>
+        <v>169.8681386912887</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890888</v>
+        <v>154.914439599674</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K3" t="n">
-        <v>331.720259835876</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859715</v>
+        <v>137.22312358251</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173931</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N3" t="n">
-        <v>377.0995476650838</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814898</v>
+        <v>159.5975183047577</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045804</v>
+        <v>427.0254977045784</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689246</v>
+        <v>130.0943626192945</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287773</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973503</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212868</v>
+        <v>197.7177314739668</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965468</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M5" t="n">
-        <v>635.993891799271</v>
+        <v>186.480358306435</v>
       </c>
       <c r="N5" t="n">
-        <v>619.6357827693708</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540374</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176062</v>
+        <v>431.927738689086</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K6" t="n">
-        <v>331.720259835876</v>
+        <v>140.6691429919064</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859715</v>
+        <v>508.0634688859691</v>
       </c>
       <c r="M6" t="n">
-        <v>645.390368667393</v>
+        <v>179.6853049173905</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518279</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814898</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4247545678368</v>
+        <v>427.0254977045784</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689246</v>
+        <v>22.1478786330741</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287773</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973503</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831123</v>
+        <v>264.6017832617638</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,7 +35188,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>439.4933346707109</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736965</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35419,7 +35419,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
@@ -35495,7 +35495,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.9999866016187</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
